--- a/Assets/RawData/ItemDbSheet.xlsx
+++ b/Assets/RawData/ItemDbSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unitygitfolder\SpartaFinal\Assets\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FD7F66-D986-4A85-80F5-5A99E0CDAE45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A5765B-EA82-41CD-8C2C-56702E794C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57735" yWindow="5640" windowWidth="14610" windowHeight="15585" xr2:uid="{C69469AB-F833-4306-9A44-F5865F393654}"/>
+    <workbookView xWindow="10150" yWindow="5030" windowWidth="24300" windowHeight="14060" xr2:uid="{C69469AB-F833-4306-9A44-F5865F393654}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
   <si>
     <t>_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,14 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>갑옷입니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>투구입니다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회복합니다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,6 +95,191 @@
   </si>
   <si>
     <t>휘두릅니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>Consume</t>
+  </si>
+  <si>
+    <t>_grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견고한검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견고한도끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명품도끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흐즈믈르그</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견고한갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명품갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오시옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오시가 입던 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견고한투구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전력투구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽤 회복합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜인지 회복합니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알 수 없는 검입니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼글도끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼글이 쓰던 도끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전력으로만든투구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견고하게만든투구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>magic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprite/Item/Weapon/Sword_2</t>
+  </si>
+  <si>
+    <t>Sprite/Item/Weapon/Sword_3</t>
+  </si>
+  <si>
+    <t>Sprite/Item/Weapon/Sword_4</t>
+  </si>
+  <si>
+    <t>Sprite/Item/Weapon/Axe_2</t>
+  </si>
+  <si>
+    <t>Sprite/Item/Weapon/Axe_3</t>
+  </si>
+  <si>
+    <t>Sprite/Item/Weapon/Axe_4</t>
+  </si>
+  <si>
+    <t>Sprite/Item/Armor/Armor_2</t>
+  </si>
+  <si>
+    <t>Sprite/Item/Armor/Armor_3</t>
+  </si>
+  <si>
+    <t>Sprite/Item/Armor/Armor_4</t>
+  </si>
+  <si>
+    <t>Sprite/Item/Armor/Helmr_2</t>
+  </si>
+  <si>
+    <t>Sprite/Item/Armor/Helmr_3</t>
+  </si>
+  <si>
+    <t>Sprite/Item/Consume/Consume_2</t>
+  </si>
+  <si>
+    <t>Sprite/Item/Consume/Consume_3</t>
+  </si>
+  <si>
+    <t>이름난 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견고하게 만든 검</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견고하게 만든 도끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름난 도끼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>견고하게 만든 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두렵습니까</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름난 갑옷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범칙금방어에 효과적</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,19 +644,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0641BC3F-C9D7-4A8C-B132-05CFB77A61FF}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.4140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,75 +674,425 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
-        <v>1</v>
+        <v>10001001</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>10001002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>10001003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>10001004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>10002001</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>10002002</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>10002003</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>10002004</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>20001001</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>20001002</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>20001003</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>20001004</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>20002001</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>20002002</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>20002003</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>70001001</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>70001002</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="F18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>70001003</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
-        <v>17</v>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
